--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_7.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_7.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -26320,37 +26322,37 @@
         <v>37627.59193600625</v>
       </c>
       <c r="E2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="F2" t="n">
         <v>37627.59193600624</v>
       </c>
       <c r="G2" t="n">
+        <v>37627.59193600625</v>
+      </c>
+      <c r="H2" t="n">
         <v>37627.59193600624</v>
-      </c>
-      <c r="H2" t="n">
-        <v>37627.59193600625</v>
       </c>
       <c r="I2" t="n">
         <v>37627.59193600624</v>
       </c>
       <c r="J2" t="n">
+        <v>37627.59193600625</v>
+      </c>
+      <c r="K2" t="n">
+        <v>37627.59193600625</v>
+      </c>
+      <c r="L2" t="n">
         <v>37627.59193600624</v>
-      </c>
-      <c r="K2" t="n">
-        <v>37627.59193600624</v>
-      </c>
-      <c r="L2" t="n">
-        <v>37627.59193600625</v>
       </c>
       <c r="M2" t="n">
         <v>37627.59193600624</v>
       </c>
       <c r="N2" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="O2" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="P2" t="n">
         <v>37627.59193600624</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="C4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="D4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="E4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="F4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="G4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="H4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="I4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="J4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="K4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="L4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="M4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="N4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="O4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="P4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
     </row>
     <row r="5">
@@ -26528,37 +26530,37 @@
         <v>-1375.378340566072</v>
       </c>
       <c r="E6" t="n">
-        <v>32252.22165943392</v>
+        <v>32252.22165943393</v>
       </c>
       <c r="F6" t="n">
         <v>32252.22165943392</v>
       </c>
       <c r="G6" t="n">
+        <v>32252.22165943393</v>
+      </c>
+      <c r="H6" t="n">
         <v>32252.22165943392</v>
-      </c>
-      <c r="H6" t="n">
-        <v>32252.22165943393</v>
       </c>
       <c r="I6" t="n">
         <v>32252.22165943392</v>
       </c>
       <c r="J6" t="n">
+        <v>32252.22165943393</v>
+      </c>
+      <c r="K6" t="n">
+        <v>32252.22165943393</v>
+      </c>
+      <c r="L6" t="n">
         <v>32252.22165943392</v>
-      </c>
-      <c r="K6" t="n">
-        <v>32252.22165943392</v>
-      </c>
-      <c r="L6" t="n">
-        <v>32252.22165943393</v>
       </c>
       <c r="M6" t="n">
         <v>32252.22165943392</v>
       </c>
       <c r="N6" t="n">
-        <v>32252.22165943393</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="O6" t="n">
-        <v>32252.22165943393</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="P6" t="n">
         <v>32252.22165943392</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_7.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>177854.7080031853</v>
+        <v>51093.7541339203</v>
       </c>
     </row>
     <row r="7">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600623</v>
       </c>
       <c r="C2" t="n">
         <v>37627.59193600625</v>
@@ -26337,25 +26337,25 @@
         <v>37627.59193600624</v>
       </c>
       <c r="J2" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="K2" t="n">
         <v>37627.59193600625</v>
       </c>
       <c r="L2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="M2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="N2" t="n">
         <v>37627.59193600624</v>
       </c>
       <c r="O2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="P2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1375.378340566072</v>
+        <v>-16526.05231060085</v>
       </c>
       <c r="C6" t="n">
-        <v>-1375.378340566072</v>
+        <v>-16526.05231060084</v>
       </c>
       <c r="D6" t="n">
-        <v>-1375.378340566072</v>
+        <v>-16526.05231060084</v>
       </c>
       <c r="E6" t="n">
-        <v>32252.22165943393</v>
+        <v>17101.54768939916</v>
       </c>
       <c r="F6" t="n">
-        <v>32252.22165943392</v>
+        <v>17101.54768939915</v>
       </c>
       <c r="G6" t="n">
-        <v>32252.22165943393</v>
+        <v>17101.54768939916</v>
       </c>
       <c r="H6" t="n">
-        <v>32252.22165943392</v>
+        <v>17101.54768939915</v>
       </c>
       <c r="I6" t="n">
-        <v>32252.22165943392</v>
+        <v>17101.54768939915</v>
       </c>
       <c r="J6" t="n">
-        <v>32252.22165943393</v>
+        <v>17101.54768939915</v>
       </c>
       <c r="K6" t="n">
-        <v>32252.22165943393</v>
+        <v>17101.54768939916</v>
       </c>
       <c r="L6" t="n">
-        <v>32252.22165943392</v>
+        <v>17101.54768939916</v>
       </c>
       <c r="M6" t="n">
-        <v>32252.22165943392</v>
+        <v>17101.54768939916</v>
       </c>
       <c r="N6" t="n">
-        <v>32252.22165943392</v>
+        <v>17101.54768939915</v>
       </c>
       <c r="O6" t="n">
-        <v>32252.22165943392</v>
+        <v>17101.54768939916</v>
       </c>
       <c r="P6" t="n">
-        <v>32252.22165943392</v>
+        <v>17101.54768939916</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_7.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51093.7541339203</v>
+        <v>165178.6126162588</v>
       </c>
     </row>
     <row r="7">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37627.59193600623</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="C2" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="D2" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="E2" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="F2" t="n">
         <v>37627.59193600624</v>
@@ -26337,7 +26337,7 @@
         <v>37627.59193600624</v>
       </c>
       <c r="J2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="K2" t="n">
         <v>37627.59193600625</v>
@@ -26349,7 +26349,7 @@
         <v>37627.59193600625</v>
       </c>
       <c r="N2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="O2" t="n">
         <v>37627.59193600625</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-16526.05231060085</v>
+        <v>-2890.445737569556</v>
       </c>
       <c r="C6" t="n">
-        <v>-16526.05231060084</v>
+        <v>-2890.445737569556</v>
       </c>
       <c r="D6" t="n">
-        <v>-16526.05231060084</v>
+        <v>-2890.445737569556</v>
       </c>
       <c r="E6" t="n">
-        <v>17101.54768939916</v>
+        <v>30737.15426243044</v>
       </c>
       <c r="F6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243044</v>
       </c>
       <c r="G6" t="n">
-        <v>17101.54768939916</v>
+        <v>30737.15426243045</v>
       </c>
       <c r="H6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243044</v>
       </c>
       <c r="I6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243044</v>
       </c>
       <c r="J6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243045</v>
       </c>
       <c r="K6" t="n">
-        <v>17101.54768939916</v>
+        <v>30737.15426243045</v>
       </c>
       <c r="L6" t="n">
-        <v>17101.54768939916</v>
+        <v>30737.15426243045</v>
       </c>
       <c r="M6" t="n">
-        <v>17101.54768939916</v>
+        <v>30737.15426243045</v>
       </c>
       <c r="N6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243045</v>
       </c>
       <c r="O6" t="n">
-        <v>17101.54768939916</v>
+        <v>30737.15426243045</v>
       </c>
       <c r="P6" t="n">
-        <v>17101.54768939916</v>
+        <v>30737.15426243045</v>
       </c>
     </row>
   </sheetData>
